--- a/Assignment 2 Report/mlp-plot.xlsx
+++ b/Assignment 2 Report/mlp-plot.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mlp" sheetId="1" r:id="rId1"/>
+    <sheet name="Perceptron" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -56,17 +57,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +121,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1.3(mlp)</a:t>
+              <a:t>1.3(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>mlp vs perceptron</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -162,6 +174,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>mlp</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -176,7 +191,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$J$3</c:f>
+              <c:f>Mlp!$A$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -215,39 +230,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:f>Mlp!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27600000000000002</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15600000000000003</c:v>
+                  <c:v>0.16600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13460000000000005</c:v>
+                  <c:v>0.16300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.121</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.125</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10699999999999998</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7999999999999967E-2</c:v>
+                  <c:v>0.10499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,6 +271,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F436-4933-B85B-640867148321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$L$2:$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25DD-4E72-ADC3-10134B0CF163}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -625,7 +704,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1.4(mlp)</a:t>
+              <a:t>1.4(mlp </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>vs perceptron</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -668,6 +755,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>mlp</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -682,7 +772,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$J$7</c:f>
+              <c:f>Mlp!$A$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -721,39 +811,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$6:$J$6</c:f>
+              <c:f>Mlp!$A$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.42300000000000004</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36199999999999999</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.21599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.18500000000000005</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>0.16500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.15900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,6 +852,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A7D-488C-9664-8EDDD370EBD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$L$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-43A0-4089-B620-CED1AE6DE43E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1012,6 +1166,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2165,16 +2350,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,16 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2501,106 +2686,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>1.3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <f>1-0.724</f>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>1-0.729</f>
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="B2" s="2">
         <f>1-0.741</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="C2" s="3">
-        <f>1-0.844</f>
-        <v>0.15600000000000003</v>
-      </c>
-      <c r="D2" s="3">
-        <f>1-0.85</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="E2" s="3">
-        <f>1-0.8654</f>
-        <v>0.13460000000000005</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="C2" s="2">
+        <f>1-0.834</f>
+        <v>0.16600000000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <f>1-0.873</f>
+        <v>0.127</v>
+      </c>
+      <c r="E2" s="2">
+        <f>1-0.837</f>
+        <v>0.16300000000000003</v>
+      </c>
+      <c r="F2" s="2">
         <f>1-0.877</f>
         <v>0.123</v>
       </c>
-      <c r="G2" s="3">
-        <f>1-0.879</f>
-        <v>0.121</v>
-      </c>
-      <c r="H2" s="3">
-        <f>1-0.875</f>
-        <v>0.125</v>
-      </c>
-      <c r="I2" s="3">
-        <f>1-0.893</f>
-        <v>0.10699999999999998</v>
-      </c>
-      <c r="J2" s="3">
-        <f>1-0.912</f>
-        <v>8.7999999999999967E-2</v>
+      <c r="G2" s="2">
+        <f>1-0.866</f>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <f>1-0.872</f>
+        <v>0.128</v>
+      </c>
+      <c r="I2" s="2">
+        <f>1-0.87</f>
+        <v>0.13</v>
+      </c>
+      <c r="J2" s="2">
+        <f>1-0.895</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="L2" s="6">
+        <f>1-0.637</f>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="M2" s="6">
+        <f>1-0.825</f>
+        <v>0.17500000000000004</v>
+      </c>
+      <c r="N2" s="6">
+        <f>1-0.821</f>
+        <v>0.17900000000000005</v>
+      </c>
+      <c r="O2" s="6">
+        <f>1-0.858</f>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="P2" s="6">
+        <f>1-0.833</f>
+        <v>0.16700000000000004</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>1-0.794</f>
+        <v>0.20599999999999996</v>
+      </c>
+      <c r="R2" s="6">
+        <f>1-0.845</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="S2" s="6">
+        <f>1-0.808</f>
+        <v>0.19199999999999995</v>
+      </c>
+      <c r="T2" s="6">
+        <f>1-0.836</f>
+        <v>0.16400000000000003</v>
+      </c>
+      <c r="U2" s="6">
+        <f>1-0.862</f>
+        <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.7</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.8</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.9</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
+      <c r="L3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.4</v>
       </c>
@@ -2614,77 +2869,147 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>1-0.577</f>
-        <v>0.42300000000000004</v>
-      </c>
-      <c r="B6" s="3">
-        <f>1-0.638</f>
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>1-0.64</f>
+        <v>0.36</v>
+      </c>
+      <c r="B6" s="2">
+        <f>1-0.627</f>
+        <v>0.373</v>
+      </c>
+      <c r="C6" s="2">
         <f>1-0.784</f>
         <v>0.21599999999999997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
+        <f>1-0.741</f>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <f>1-0.769</f>
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="F6" s="2">
+        <f>1-0.824</f>
+        <v>0.17600000000000005</v>
+      </c>
+      <c r="G6" s="2">
+        <f>1-0.812</f>
+        <v>0.18799999999999994</v>
+      </c>
+      <c r="H6" s="2">
         <f>1-0.815</f>
         <v>0.18500000000000005</v>
       </c>
-      <c r="E6" s="3">
-        <f>1-0.823</f>
-        <v>0.17700000000000005</v>
-      </c>
-      <c r="F6" s="3">
-        <f>1-0.834</f>
-        <v>0.16600000000000004</v>
-      </c>
-      <c r="G6" s="3">
-        <f>1-0.842</f>
-        <v>0.15800000000000003</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="I6" s="2">
+        <f>1-0.835</f>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="J6" s="2">
         <f>1-0.841</f>
         <v>0.15900000000000003</v>
       </c>
-      <c r="I6" s="3">
-        <f>1-0.838</f>
-        <v>0.16200000000000003</v>
-      </c>
-      <c r="J6" s="3">
-        <f>1-0.849</f>
-        <v>0.15100000000000002</v>
+      <c r="L6" s="6">
+        <f>1-0.571</f>
+        <v>0.42900000000000005</v>
+      </c>
+      <c r="M6" s="6">
+        <f>1-0.765</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N6" s="6">
+        <f>1-0.732</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="O6" s="6">
+        <f>1-0.776</f>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="P6" s="6">
+        <f>1-0.771</f>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>1-0.741</f>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="R6" s="6">
+        <f>1-0.777</f>
+        <v>0.22299999999999998</v>
+      </c>
+      <c r="S6" s="6">
+        <f>1-0.768</f>
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="T6" s="6">
+        <f>1-0.766</f>
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="U6" s="6">
+        <f>1-0.802</f>
+        <v>0.19799999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>0.1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.7</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.9</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="U7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2697,4 +3022,22 @@
   <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2734B7FF-7F79-451D-8D73-D04C4E6B9C2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assignment 2 Report/mlp-plot.xlsx
+++ b/Assignment 2 Report/mlp-plot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mlp" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+  <si>
+    <t>Perceptron</t>
+  </si>
+  <si>
+    <t>mlp</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,18 +71,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,17 +139,628 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1.3(</a:t>
+              <a:t>1.4</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>mlp vs perceptron</a:t>
-            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mlp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Mlp!$A$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$A$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15900000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A18-4448-8851-412CA24C2B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$L$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A18-4448-8851-412CA24C2B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>svm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$A$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18200000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A18-4448-8851-412CA24C2B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="471006488"/>
+        <c:axId val="471008456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471006488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Prediction Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471008456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471008456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Prediction Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471006488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
+              <a:t>1.3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -270,7 +899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F436-4933-B85B-640867148321}"/>
+              <c16:uniqueId val="{00000000-49B4-4BCC-AEB9-4CD129FB936D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -334,7 +963,71 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25DD-4E72-ADC3-10134B0CF163}"/>
+              <c16:uniqueId val="{00000001-49B4-4BCC-AEB9-4CD129FB936D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>svm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Mlp!$A$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5999999999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999956E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2000000000000055E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7000000000000042E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0000000000000018E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49B4-4BCC-AEB9-4CD129FB936D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -669,571 +1362,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1.4(mlp </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>vs perceptron</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>mlp</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Mlp!$A$7:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Mlp!$A$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.373</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15900000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A7D-488C-9664-8EDDD370EBD2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>perceptron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Mlp!$L$6:$U$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.42900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.26800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19799999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43A0-4089-B620-CED1AE6DE43E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="471006488"/>
-        <c:axId val="471008456"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="471006488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Prediction Error</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471008456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="471008456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Prediction Error</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471006488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2350,27 +2478,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CEE7A4-56E5-4062-911F-499E0DAB77D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517C7104-1F28-4E21-B9D0-83A3043F4467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2386,27 +2516,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C27FFCA-E4A1-45A1-9074-66430CE03619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDCDCEC-3D6B-4E0C-8FFF-7B21779DD521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2686,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,18 +2830,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="6">
         <v>1.3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2752,43 +2895,43 @@
         <f>1-0.895</f>
         <v>0.10499999999999998</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <f>1-0.637</f>
         <v>0.36299999999999999</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <f>1-0.825</f>
         <v>0.17500000000000004</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <f>1-0.821</f>
         <v>0.17900000000000005</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <f>1-0.858</f>
         <v>0.14200000000000002</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <f>1-0.833</f>
         <v>0.16700000000000004</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <f>1-0.794</f>
         <v>0.20599999999999996</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <f>1-0.845</f>
         <v>0.15500000000000003</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <f>1-0.808</f>
         <v>0.19199999999999995</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="4">
         <f>1-0.836</f>
         <v>0.16400000000000003</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <f>1-0.862</f>
         <v>0.13800000000000001</v>
       </c>
@@ -2856,18 +2999,29 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>1.4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2910,43 +3064,43 @@
         <f>1-0.841</f>
         <v>0.15900000000000003</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <f>1-0.571</f>
         <v>0.42900000000000005</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f>1-0.765</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <f>1-0.732</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <f>1-0.776</f>
         <v>0.22399999999999998</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <f>1-0.771</f>
         <v>0.22899999999999998</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <f>1-0.741</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <f>1-0.777</f>
         <v>0.22299999999999998</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <f>1-0.768</f>
         <v>0.23199999999999998</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="4">
         <f>1-0.766</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="4">
         <f>1-0.802</f>
         <v>0.19799999999999995</v>
       </c>
@@ -3013,14 +3167,178 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>1-0.828</f>
+        <v>0.17200000000000004</v>
+      </c>
+      <c r="B26" s="1">
+        <f>1-0.869</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <f>1-0.883</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <f>1-0.904</f>
+        <v>9.5999999999999974E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f>1-0.925</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f>1-0.938</f>
+        <v>6.2000000000000055E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>1-0.953</f>
+        <v>4.7000000000000042E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <f>1-0.97</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <f>1-0.986</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <f>1-0.998</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>1-0.764</f>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="B29" s="1">
+        <f>1-0.779</f>
+        <v>0.22099999999999997</v>
+      </c>
+      <c r="C29" s="1">
+        <f>1-0.758</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <f>1-0.778</f>
+        <v>0.22199999999999998</v>
+      </c>
+      <c r="E29" s="1">
+        <f>1-0.776</f>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="F29" s="1">
+        <f>1-0.789</f>
+        <v>0.21099999999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <f>1-0.782</f>
+        <v>0.21799999999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <f>1-0.8</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I29" s="1">
+        <f>1-0.802</f>
+        <v>0.19799999999999995</v>
+      </c>
+      <c r="J29" s="1">
+        <f>1-0.818</f>
+        <v>0.18200000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3028,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2734B7FF-7F79-451D-8D73-D04C4E6B9C2B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,5 +3357,6 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>